--- a/biology/Botanique/Certeau_d'hiver/Certeau_d'hiver.xlsx
+++ b/biology/Botanique/Certeau_d'hiver/Certeau_d'hiver.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Certeau_d%27hiver</t>
+          <t>Certeau_d'hiver</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Certeau d'hiver est un cultivar de poire ancienne, encore produite.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Certeau_d%27hiver</t>
+          <t>Certeau_d'hiver</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>De Gros Certeau,
 Champagne d'hiver,
@@ -519,7 +533,7 @@
 De Prince d'hiver,
 Trouvé(e),
 Pléteau,
-De Merle[1].</t>
+De Merle.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Certeau_d%27hiver</t>
+          <t>Certeau_d'hiver</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La variété est originaire des environs de Vitry-le-François, en Champagne et fut décrite (en latin) par Charles Estienne en 1540 (Seminarium[2],)[1]) sous le nom de "Champagne d'hiver"
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La variété est originaire des environs de Vitry-le-François, en Champagne et fut décrite (en latin) par Charles Estienne en 1540 (Seminarium,)) sous le nom de "Champagne d'hiver"
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Certeau_d%27hiver</t>
+          <t>Certeau_d'hiver</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,11 +596,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arbre
-Bois peu fort, rameaux assez nombreux.
-Fruit
-Les descriptions d'André Leroy et d'Alphonse Mas sont différentes. Ces deux spécialistes dessinent des silhouettes dissemblables du fruit. André Leroy en propose même deux versions.
-Le fruit se révèle de taille moyenne et parfois inférieure, affectant parfois la forme d'une calebasse[1].
+          <t>Arbre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bois peu fort, rameaux assez nombreux.
 </t>
         </is>
       </c>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Certeau_d%27hiver</t>
+          <t>Certeau_d'hiver</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,10 +628,50 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les descriptions d'André Leroy et d'Alphonse Mas sont différentes. Ces deux spécialistes dessinent des silhouettes dissemblables du fruit. André Leroy en propose même deux versions.
+Le fruit se révèle de taille moyenne et parfois inférieure, affectant parfois la forme d'une calebasse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Certeau_d'hiver</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Certeau_d%27hiver</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Utilisation et comportement organoleptique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>L'utilisation et le comportement organoleptique de Certeau d'hiver est commun à la plupart des certeaux :
 bien que les fruits soient juteux, sucrés et parfumés, leurs tendances astringentes et pierreuses lorsqu'ils sont crus les rendent de qualité médiocre pour une consommation au couteau.
